--- a/bd/Cam_21_4.xlsx
+++ b/bd/Cam_21_4.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
@@ -418,7 +418,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="H1" t="n">
         <v>0</v>
@@ -438,16 +438,16 @@
         <v>57.75</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9913793103448276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -464,16 +464,16 @@
         <v>65</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.03203342618384401</v>
       </c>
     </row>
     <row r="4">
@@ -490,16 +490,16 @@
         <v>60.5</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9426987060998152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>55.25</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9579021970233876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -551,7 +551,7 @@
         <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9549455640491081</v>
+        <v>0.07334923648637684</v>
       </c>
     </row>
     <row r="7">
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -646,13 +646,13 @@
         <v>63</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -672,15 +672,301 @@
         <v>58</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1603</v>
+      </c>
+      <c r="B12" t="n">
+        <v>590</v>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>72</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B13" t="n">
+        <v>598</v>
+      </c>
+      <c r="C13" t="n">
+        <v>40</v>
+      </c>
+      <c r="D13" t="n">
+        <v>78</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1892</v>
+      </c>
+      <c r="B14" t="n">
+        <v>627</v>
+      </c>
+      <c r="C14" t="n">
+        <v>42</v>
+      </c>
+      <c r="D14" t="n">
+        <v>70</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B15" t="n">
+        <v>611</v>
+      </c>
+      <c r="C15" t="n">
+        <v>41</v>
+      </c>
+      <c r="D15" t="n">
+        <v>57</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1687</v>
+      </c>
+      <c r="B16" t="n">
+        <v>587</v>
+      </c>
+      <c r="C16" t="n">
+        <v>38</v>
+      </c>
+      <c r="D16" t="n">
+        <v>65</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1099</v>
+      </c>
+      <c r="B17" t="n">
+        <v>624</v>
+      </c>
+      <c r="C17" t="n">
+        <v>42</v>
+      </c>
+      <c r="D17" t="n">
+        <v>87</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1979</v>
+      </c>
+      <c r="B18" t="n">
+        <v>622</v>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>55</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1312</v>
+      </c>
+      <c r="B19" t="n">
+        <v>608</v>
+      </c>
+      <c r="C19" t="n">
+        <v>46</v>
+      </c>
+      <c r="D19" t="n">
+        <v>88</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>607</v>
+      </c>
+      <c r="B20" t="n">
+        <v>365</v>
+      </c>
+      <c r="C20" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" t="n">
+        <v>54</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2098</v>
+      </c>
+      <c r="B21" t="n">
+        <v>601</v>
+      </c>
+      <c r="C21" t="n">
+        <v>42</v>
+      </c>
+      <c r="D21" t="n">
+        <v>56</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>726</v>
+      </c>
+      <c r="B22" t="n">
+        <v>281</v>
+      </c>
+      <c r="C22" t="n">
+        <v>28</v>
+      </c>
+      <c r="D22" t="n">
+        <v>50</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" t="n">
         <v>0</v>
       </c>
     </row>
